--- a/PC Repair.xlsx
+++ b/PC Repair.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>PC Repair Documentation</t>
+    <t>PC Troubleshooting &amp; Repair Documentation</t>
   </si>
 </sst>
 </file>
@@ -358,10 +358,13 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">

--- a/PC Repair.xlsx
+++ b/PC Repair.xlsx
@@ -24,9 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PC Troubleshooting &amp; Repair Documentation</t>
+  </si>
+  <si>
+    <t>gututu</t>
   </si>
 </sst>
 </file>
@@ -355,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -374,6 +377,11 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
